--- a/B73 RNA MX1 HPRT1 Ct.xlsx
+++ b/B73 RNA MX1 HPRT1 Ct.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cko11\Documents\GitHub\codesnippets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77FD3F3-6B60-45B1-BD16-153EE3FF995F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BBBBDF-7AAE-4D33-9BD0-DC8FF97255C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="180" windowWidth="25440" windowHeight="15540" activeTab="3" xr2:uid="{B85DB75A-0365-4695-83C6-95409FF3F1C1}"/>
+    <workbookView xWindow="28680" yWindow="180" windowWidth="25440" windowHeight="15540" activeTab="1" xr2:uid="{B85DB75A-0365-4695-83C6-95409FF3F1C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Bleed 9-15" sheetId="1" r:id="rId1"/>
@@ -492,7 +492,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60DD29E-A221-4C00-BCD8-E2DF735F84EB}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1476,8 +1476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE4874A-D465-4AD7-AA3C-FD84708B7B7D}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
